--- a/data/pca/factorExposure/factorExposure_2016-11-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01761253122823871</v>
+        <v>0.01610093607329306</v>
       </c>
       <c r="C2">
-        <v>0.04469381750744992</v>
+        <v>-0.04237502080140416</v>
       </c>
       <c r="D2">
-        <v>0.02074500594866815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05376075895808004</v>
+      </c>
+      <c r="E2">
+        <v>0.01882498806216134</v>
+      </c>
+      <c r="F2">
+        <v>0.09058243266758122</v>
+      </c>
+      <c r="G2">
+        <v>-0.03444818674955046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05221463504242719</v>
+        <v>0.03461094809923175</v>
       </c>
       <c r="C3">
-        <v>0.1035060913974821</v>
+        <v>-0.08346221649219174</v>
       </c>
       <c r="D3">
-        <v>0.02677707558190878</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09620126904296486</v>
+      </c>
+      <c r="E3">
+        <v>0.02361899983653051</v>
+      </c>
+      <c r="F3">
+        <v>0.0861387126725323</v>
+      </c>
+      <c r="G3">
+        <v>0.06794969076222267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06065710664626228</v>
+        <v>0.0594108409659202</v>
       </c>
       <c r="C4">
-        <v>0.06741289529495975</v>
+        <v>-0.06218758648845345</v>
       </c>
       <c r="D4">
-        <v>0.0005863165882388721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05475328297779705</v>
+      </c>
+      <c r="E4">
+        <v>0.01292926173142011</v>
+      </c>
+      <c r="F4">
+        <v>0.09696823211280516</v>
+      </c>
+      <c r="G4">
+        <v>0.02850145984488584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0257607267975324</v>
+        <v>0.0345912027262168</v>
       </c>
       <c r="C6">
-        <v>0.05097091417249392</v>
+        <v>-0.03926910509170299</v>
       </c>
       <c r="D6">
-        <v>0.008612529226186747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06463494034541362</v>
+      </c>
+      <c r="E6">
+        <v>0.01503147080857203</v>
+      </c>
+      <c r="F6">
+        <v>0.08767335546182325</v>
+      </c>
+      <c r="G6">
+        <v>0.005590698180674623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02103619725870231</v>
+        <v>0.02198452702637627</v>
       </c>
       <c r="C7">
-        <v>0.04546310891870128</v>
+        <v>-0.03676360042144672</v>
       </c>
       <c r="D7">
-        <v>-0.01464924696078529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.02862605053375501</v>
+      </c>
+      <c r="E7">
+        <v>0.0003369447775079462</v>
+      </c>
+      <c r="F7">
+        <v>0.1170652784423641</v>
+      </c>
+      <c r="G7">
+        <v>-0.01054597577650996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001599441494025008</v>
+        <v>0.006544302041976291</v>
       </c>
       <c r="C8">
-        <v>0.01027595155628807</v>
+        <v>-0.01988890300070126</v>
       </c>
       <c r="D8">
-        <v>0.01500039719717538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03343518612080315</v>
+      </c>
+      <c r="E8">
+        <v>0.01173837533126175</v>
+      </c>
+      <c r="F8">
+        <v>0.06931879031423654</v>
+      </c>
+      <c r="G8">
+        <v>0.005505410657844226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02759446006366607</v>
+        <v>0.0377119800881355</v>
       </c>
       <c r="C9">
-        <v>0.04608669073364081</v>
+        <v>-0.04984032608778993</v>
       </c>
       <c r="D9">
-        <v>-0.004935653217401045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03668689801079136</v>
+      </c>
+      <c r="E9">
+        <v>0.009050840164674796</v>
+      </c>
+      <c r="F9">
+        <v>0.09935061456510703</v>
+      </c>
+      <c r="G9">
+        <v>0.01087122326776493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08454624271279929</v>
+        <v>0.09625219309792195</v>
       </c>
       <c r="C10">
-        <v>-0.1975996990161646</v>
+        <v>0.1919199171911597</v>
       </c>
       <c r="D10">
-        <v>0.02339287013452706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0111504784324486</v>
+      </c>
+      <c r="E10">
+        <v>0.03384740754576048</v>
+      </c>
+      <c r="F10">
+        <v>0.05060107232403582</v>
+      </c>
+      <c r="G10">
+        <v>0.001125926548289104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0408792018225265</v>
+        <v>0.03727216257119979</v>
       </c>
       <c r="C11">
-        <v>0.05593808974412223</v>
+        <v>-0.05151702100492633</v>
       </c>
       <c r="D11">
-        <v>-0.01166875484390367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02434792087128176</v>
+      </c>
+      <c r="E11">
+        <v>-0.01361180225375109</v>
+      </c>
+      <c r="F11">
+        <v>0.06777278200513892</v>
+      </c>
+      <c r="G11">
+        <v>0.004606280891553102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03523083035660945</v>
+        <v>0.03783703616596591</v>
       </c>
       <c r="C12">
-        <v>0.04647109393851896</v>
+        <v>-0.04690453090226438</v>
       </c>
       <c r="D12">
-        <v>-0.01026698430888127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.01826699565729877</v>
+      </c>
+      <c r="E12">
+        <v>-0.003826291318702026</v>
+      </c>
+      <c r="F12">
+        <v>0.0700347773650271</v>
+      </c>
+      <c r="G12">
+        <v>0.0009400774045740012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01052423937067129</v>
+        <v>0.01442507571283817</v>
       </c>
       <c r="C13">
-        <v>0.04193481289075569</v>
+        <v>-0.04025862774366162</v>
       </c>
       <c r="D13">
-        <v>0.01654694874879701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06073400282325154</v>
+      </c>
+      <c r="E13">
+        <v>0.02821628663612702</v>
+      </c>
+      <c r="F13">
+        <v>0.1336278780782503</v>
+      </c>
+      <c r="G13">
+        <v>0.006601242712260947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00594986367426307</v>
+        <v>0.007810929653869216</v>
       </c>
       <c r="C14">
-        <v>0.02906690326118715</v>
+        <v>-0.02525173742776455</v>
       </c>
       <c r="D14">
-        <v>-0.01418112615487245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02190022819165347</v>
+      </c>
+      <c r="E14">
+        <v>0.007180714919232267</v>
+      </c>
+      <c r="F14">
+        <v>0.1039483036805198</v>
+      </c>
+      <c r="G14">
+        <v>-0.01688404945738532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001266802039796295</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.001015296118820056</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001705320929329521</v>
+      </c>
+      <c r="E15">
+        <v>-0.001111153025195689</v>
+      </c>
+      <c r="F15">
+        <v>0.0008098399811714517</v>
+      </c>
+      <c r="G15">
+        <v>-0.000845015662453542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03497470420276665</v>
+        <v>0.03471906598330311</v>
       </c>
       <c r="C16">
-        <v>0.04097276602529952</v>
+        <v>-0.04451635722210027</v>
       </c>
       <c r="D16">
-        <v>-0.002335478878832082</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02268782278055131</v>
+      </c>
+      <c r="E16">
+        <v>0.002188933432774453</v>
+      </c>
+      <c r="F16">
+        <v>0.07307370761659998</v>
+      </c>
+      <c r="G16">
+        <v>-0.009157707710359914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03106231627629899</v>
+        <v>0.02002555459103563</v>
       </c>
       <c r="C19">
-        <v>0.05969685044650361</v>
+        <v>-0.04807822088722499</v>
       </c>
       <c r="D19">
-        <v>0.03431894274666469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09992191151401114</v>
+      </c>
+      <c r="E19">
+        <v>0.03250122256397114</v>
+      </c>
+      <c r="F19">
+        <v>0.1366765173643891</v>
+      </c>
+      <c r="G19">
+        <v>-0.02349197028615552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01352734484606083</v>
+        <v>0.01506076194339717</v>
       </c>
       <c r="C20">
-        <v>0.0446338655260227</v>
+        <v>-0.03927515740594342</v>
       </c>
       <c r="D20">
-        <v>0.02133632456045722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04481975026083776</v>
+      </c>
+      <c r="E20">
+        <v>0.03443902796466823</v>
+      </c>
+      <c r="F20">
+        <v>0.1004469537681494</v>
+      </c>
+      <c r="G20">
+        <v>-0.007882827732804024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.006650218886569083</v>
+        <v>0.009136562432247891</v>
       </c>
       <c r="C21">
-        <v>0.04063421672239948</v>
+        <v>-0.04050072265455756</v>
       </c>
       <c r="D21">
-        <v>0.02569026369446605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06177347484345799</v>
+      </c>
+      <c r="E21">
+        <v>0.02961234428545425</v>
+      </c>
+      <c r="F21">
+        <v>0.1489130347362587</v>
+      </c>
+      <c r="G21">
+        <v>-0.006754464513571131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.004636702435481808</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01468943804167992</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02512457391904581</v>
+      </c>
+      <c r="E22">
+        <v>0.001498632001198222</v>
+      </c>
+      <c r="F22">
+        <v>0.02056309168319276</v>
+      </c>
+      <c r="G22">
+        <v>0.03362495091776031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.004690784509774399</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01464185114089306</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02487705698371012</v>
+      </c>
+      <c r="E23">
+        <v>0.001815509738902662</v>
+      </c>
+      <c r="F23">
+        <v>0.02028616538399698</v>
+      </c>
+      <c r="G23">
+        <v>0.03365022117676245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02881852446531354</v>
+        <v>0.03301032289120533</v>
       </c>
       <c r="C24">
-        <v>0.04788717798093343</v>
+        <v>-0.05202939576755845</v>
       </c>
       <c r="D24">
-        <v>-0.01204427416803641</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01942284012209875</v>
+      </c>
+      <c r="E24">
+        <v>-0.00418439727920052</v>
+      </c>
+      <c r="F24">
+        <v>0.07750534002675566</v>
+      </c>
+      <c r="G24">
+        <v>-0.003989159230239772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04638434060453435</v>
+        <v>0.04364230976985704</v>
       </c>
       <c r="C25">
-        <v>0.05604330802240862</v>
+        <v>-0.0569346584742565</v>
       </c>
       <c r="D25">
-        <v>-0.02311632695431978</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01528684278593207</v>
+      </c>
+      <c r="E25">
+        <v>-0.006192598809957942</v>
+      </c>
+      <c r="F25">
+        <v>0.08389775706987422</v>
+      </c>
+      <c r="G25">
+        <v>0.01344380624313518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.008978838630519745</v>
+        <v>0.01538860085912009</v>
       </c>
       <c r="C26">
-        <v>0.01335769915473893</v>
+        <v>-0.01297235539533289</v>
       </c>
       <c r="D26">
-        <v>-0.0009266927154418964</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01656709461236949</v>
+      </c>
+      <c r="E26">
+        <v>0.009509564490198732</v>
+      </c>
+      <c r="F26">
+        <v>0.08155527110952034</v>
+      </c>
+      <c r="G26">
+        <v>-0.02116639751564914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09880220108524476</v>
+        <v>0.1306267660297016</v>
       </c>
       <c r="C28">
-        <v>-0.2245687711218319</v>
+        <v>0.2436023388255904</v>
       </c>
       <c r="D28">
-        <v>0.01317804665877163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.008151456974452801</v>
+      </c>
+      <c r="E28">
+        <v>0.03664501823547014</v>
+      </c>
+      <c r="F28">
+        <v>0.06192048601992132</v>
+      </c>
+      <c r="G28">
+        <v>0.006152953371141363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01167418270713882</v>
+        <v>0.008839305242619012</v>
       </c>
       <c r="C29">
-        <v>0.02097366320180196</v>
+        <v>-0.02151751570447905</v>
       </c>
       <c r="D29">
-        <v>-0.01170332993505034</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01268248261926246</v>
+      </c>
+      <c r="E29">
+        <v>0.01165971421883042</v>
+      </c>
+      <c r="F29">
+        <v>0.09817151972332064</v>
+      </c>
+      <c r="G29">
+        <v>-0.003453936352374451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04045646357309246</v>
+        <v>0.0395414501225851</v>
       </c>
       <c r="C30">
-        <v>0.07323549283986583</v>
+        <v>-0.06313261934540026</v>
       </c>
       <c r="D30">
-        <v>-0.002018000675598946</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09118055271660536</v>
+      </c>
+      <c r="E30">
+        <v>-0.01460988554488525</v>
+      </c>
+      <c r="F30">
+        <v>0.1104532119750189</v>
+      </c>
+      <c r="G30">
+        <v>-0.02864529939347927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04285931287072892</v>
+        <v>0.05803925795097649</v>
       </c>
       <c r="C31">
-        <v>0.0312509824459563</v>
+        <v>-0.04390902891518111</v>
       </c>
       <c r="D31">
-        <v>-0.01181316861617705</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.002628877158339177</v>
+      </c>
+      <c r="E31">
+        <v>0.03429279857855469</v>
+      </c>
+      <c r="F31">
+        <v>0.09432825168242652</v>
+      </c>
+      <c r="G31">
+        <v>0.031051644959292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.008661494235227295</v>
+        <v>0.00477715627974784</v>
       </c>
       <c r="C32">
-        <v>0.03394862168506259</v>
+        <v>-0.027626726864134</v>
       </c>
       <c r="D32">
-        <v>0.01080252835215485</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04371701597537982</v>
+      </c>
+      <c r="E32">
+        <v>-0.003349752475547521</v>
+      </c>
+      <c r="F32">
+        <v>0.07854418906820837</v>
+      </c>
+      <c r="G32">
+        <v>-0.01144995829492175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0310333247649091</v>
+        <v>0.02726016688336737</v>
       </c>
       <c r="C33">
-        <v>0.05734146081701159</v>
+        <v>-0.04983816622032912</v>
       </c>
       <c r="D33">
-        <v>0.003713208511464084</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06998077224686575</v>
+      </c>
+      <c r="E33">
+        <v>0.007380429885049415</v>
+      </c>
+      <c r="F33">
+        <v>0.1509658630972591</v>
+      </c>
+      <c r="G33">
+        <v>0.0078371357499197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05220872630460669</v>
+        <v>0.04324328688626013</v>
       </c>
       <c r="C34">
-        <v>0.05473349619458086</v>
+        <v>-0.06214419642596761</v>
       </c>
       <c r="D34">
-        <v>-0.0181116473721284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02269024637235829</v>
+      </c>
+      <c r="E34">
+        <v>-0.02032521425739348</v>
+      </c>
+      <c r="F34">
+        <v>0.07664964525061595</v>
+      </c>
+      <c r="G34">
+        <v>0.0006687269935493677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.00946234626200187</v>
+        <v>0.01639865004444219</v>
       </c>
       <c r="C36">
-        <v>0.008888009712864518</v>
+        <v>-0.008445543543850088</v>
       </c>
       <c r="D36">
-        <v>-0.005978567352085405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01970139984572966</v>
+      </c>
+      <c r="E36">
+        <v>0.01373264452856692</v>
+      </c>
+      <c r="F36">
+        <v>0.09541942918704291</v>
+      </c>
+      <c r="G36">
+        <v>0.001198548127354318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03696947295810864</v>
+        <v>0.02891129698755309</v>
       </c>
       <c r="C38">
-        <v>0.02173532001863043</v>
+        <v>-0.02220502983605197</v>
       </c>
       <c r="D38">
-        <v>-0.009487190466005185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0210246648875445</v>
+      </c>
+      <c r="E38">
+        <v>0.01493964572780666</v>
+      </c>
+      <c r="F38">
+        <v>0.08504276841067548</v>
+      </c>
+      <c r="G38">
+        <v>0.003564700130786522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03730167581021002</v>
+        <v>0.03772659099872958</v>
       </c>
       <c r="C39">
-        <v>0.08390540067072599</v>
+        <v>-0.07236024827218913</v>
       </c>
       <c r="D39">
-        <v>0.004826299320637527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04703560457169197</v>
+      </c>
+      <c r="E39">
+        <v>-0.01390833593113825</v>
+      </c>
+      <c r="F39">
+        <v>0.08594838762968675</v>
+      </c>
+      <c r="G39">
+        <v>-0.03477231036764548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01736758271746154</v>
+        <v>0.01873068130049077</v>
       </c>
       <c r="C40">
-        <v>0.02672079063314515</v>
+        <v>-0.03747198427028974</v>
       </c>
       <c r="D40">
-        <v>0.01904883272746381</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03369754787907964</v>
+      </c>
+      <c r="E40">
+        <v>0.03418440609015767</v>
+      </c>
+      <c r="F40">
+        <v>0.1179538577345078</v>
+      </c>
+      <c r="G40">
+        <v>0.04059967188069493</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01065949117363337</v>
+        <v>0.0185712766039847</v>
       </c>
       <c r="C41">
-        <v>0.0004118785027678068</v>
+        <v>-0.001677898710975043</v>
       </c>
       <c r="D41">
-        <v>-0.007712687255750012</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01569604159476108</v>
+      </c>
+      <c r="E41">
+        <v>0.01782197100574687</v>
+      </c>
+      <c r="F41">
+        <v>0.08521367843410724</v>
+      </c>
+      <c r="G41">
+        <v>-0.004895771769950412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.01704346213950953</v>
+        <v>0.009584311295609323</v>
       </c>
       <c r="C42">
-        <v>0.02905445449604779</v>
+        <v>-0.01551822668564791</v>
       </c>
       <c r="D42">
-        <v>0.0239290480893253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.007920174558777499</v>
+      </c>
+      <c r="E42">
+        <v>0.01973288989540153</v>
+      </c>
+      <c r="F42">
+        <v>-0.02066991823613716</v>
+      </c>
+      <c r="G42">
+        <v>-0.001958961295285707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03255928422065076</v>
+        <v>0.03228278728943929</v>
       </c>
       <c r="C43">
-        <v>0.01285361407540889</v>
+        <v>-0.01514821885334674</v>
       </c>
       <c r="D43">
-        <v>-0.00643974233896625</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03398844932175423</v>
+      </c>
+      <c r="E43">
+        <v>0.01459353246926718</v>
+      </c>
+      <c r="F43">
+        <v>0.1072392289795258</v>
+      </c>
+      <c r="G43">
+        <v>0.01645418177146982</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02111281997932905</v>
+        <v>0.01722290833398246</v>
       </c>
       <c r="C44">
-        <v>0.05482017380077785</v>
+        <v>-0.05336580010695446</v>
       </c>
       <c r="D44">
-        <v>0.003614088462734818</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0364589773331036</v>
+      </c>
+      <c r="E44">
+        <v>0.02771875014269464</v>
+      </c>
+      <c r="F44">
+        <v>0.1113368893623313</v>
+      </c>
+      <c r="G44">
+        <v>-0.01450218060878118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0001717118280892828</v>
+        <v>0.01091821196300452</v>
       </c>
       <c r="C46">
-        <v>0.01418989758026869</v>
+        <v>-0.01743972322147705</v>
       </c>
       <c r="D46">
-        <v>-0.01776480286777856</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.005176043238361399</v>
+      </c>
+      <c r="E46">
+        <v>0.01847342466386964</v>
+      </c>
+      <c r="F46">
+        <v>0.1097399261448666</v>
+      </c>
+      <c r="G46">
+        <v>-0.009738676527559316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07771742566465567</v>
+        <v>0.08818764608837998</v>
       </c>
       <c r="C47">
-        <v>0.06906555853632955</v>
+        <v>-0.07401625621888808</v>
       </c>
       <c r="D47">
-        <v>-0.007048617477024442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008169204717750586</v>
+      </c>
+      <c r="E47">
+        <v>0.04119427219589541</v>
+      </c>
+      <c r="F47">
+        <v>0.09432783923164038</v>
+      </c>
+      <c r="G47">
+        <v>0.03441382613552897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01761750804069079</v>
+        <v>0.01766291240908076</v>
       </c>
       <c r="C48">
-        <v>0.01076053824436386</v>
+        <v>-0.01469744579759017</v>
       </c>
       <c r="D48">
-        <v>-0.00956807020926506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01326997685305252</v>
+      </c>
+      <c r="E48">
+        <v>0.02353571708071956</v>
+      </c>
+      <c r="F48">
+        <v>0.1063785932378516</v>
+      </c>
+      <c r="G48">
+        <v>-0.005014542278100748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08608823120097621</v>
+        <v>0.07459505787616474</v>
       </c>
       <c r="C50">
-        <v>0.06761119801693348</v>
+        <v>-0.06714368750998595</v>
       </c>
       <c r="D50">
-        <v>-0.01979271309403667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001381741050202718</v>
+      </c>
+      <c r="E50">
+        <v>0.03503483363030017</v>
+      </c>
+      <c r="F50">
+        <v>0.09254305765518996</v>
+      </c>
+      <c r="G50">
+        <v>0.06691570829598606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01555090165079388</v>
+        <v>0.0120790347258635</v>
       </c>
       <c r="C51">
-        <v>0.03957346747382456</v>
+        <v>-0.0323421469315185</v>
       </c>
       <c r="D51">
-        <v>-0.008634071021403478</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04096120465667977</v>
+      </c>
+      <c r="E51">
+        <v>-0.004403274324202082</v>
+      </c>
+      <c r="F51">
+        <v>0.09861327253030414</v>
+      </c>
+      <c r="G51">
+        <v>-0.01978591392555743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.09740797026833208</v>
+        <v>0.09144001642047597</v>
       </c>
       <c r="C53">
-        <v>0.07022501805547163</v>
+        <v>-0.08401467213866025</v>
       </c>
       <c r="D53">
-        <v>-0.02879081321401929</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03012716158546978</v>
+      </c>
+      <c r="E53">
+        <v>0.0489025158637507</v>
+      </c>
+      <c r="F53">
+        <v>0.1024426114482613</v>
+      </c>
+      <c r="G53">
+        <v>0.03868462790125096</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03064579257175204</v>
+        <v>0.03224931288511027</v>
       </c>
       <c r="C54">
-        <v>0.006582903920192776</v>
+        <v>-0.02009720773213907</v>
       </c>
       <c r="D54">
-        <v>-0.001845999034999352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02482178541795729</v>
+      </c>
+      <c r="E54">
+        <v>0.01287678970270738</v>
+      </c>
+      <c r="F54">
+        <v>0.1076152873458925</v>
+      </c>
+      <c r="G54">
+        <v>-0.004053222381873401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07434294864631827</v>
+        <v>0.08276180886759481</v>
       </c>
       <c r="C55">
-        <v>0.0650726343352034</v>
+        <v>-0.06690680471455984</v>
       </c>
       <c r="D55">
-        <v>-0.02724406458291764</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03554208494851484</v>
+      </c>
+      <c r="E55">
+        <v>0.04606581577385328</v>
+      </c>
+      <c r="F55">
+        <v>0.06998099585399309</v>
+      </c>
+      <c r="G55">
+        <v>0.03457959252764713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1508742416278615</v>
+        <v>0.1438118149996594</v>
       </c>
       <c r="C56">
-        <v>0.09251318738590227</v>
+        <v>-0.1014920577540845</v>
       </c>
       <c r="D56">
-        <v>-0.02399390330333584</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03665934190550629</v>
+      </c>
+      <c r="E56">
+        <v>0.05123595917544589</v>
+      </c>
+      <c r="F56">
+        <v>0.06105413177294723</v>
+      </c>
+      <c r="G56">
+        <v>0.04102850603862623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.003797335695619669</v>
+        <v>0.001477983253258605</v>
       </c>
       <c r="C57">
-        <v>0.006807408436015242</v>
+        <v>-0.003111425676110905</v>
       </c>
       <c r="D57">
-        <v>0.03218365347223945</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02607597568079802</v>
+      </c>
+      <c r="E57">
+        <v>0.006096368581685373</v>
+      </c>
+      <c r="F57">
+        <v>0.009792299976589586</v>
+      </c>
+      <c r="G57">
+        <v>-0.00344096000786259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06401820085902213</v>
+        <v>0.03669445458350707</v>
       </c>
       <c r="C58">
-        <v>0.08150358587981628</v>
+        <v>-0.04002157252960797</v>
       </c>
       <c r="D58">
-        <v>0.9720976768861922</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.6818677232861312</v>
+      </c>
+      <c r="E58">
+        <v>0.6220618037842367</v>
+      </c>
+      <c r="F58">
+        <v>-0.3141120117766718</v>
+      </c>
+      <c r="G58">
+        <v>0.02638730715345007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1449533550324665</v>
+        <v>0.1504537785222028</v>
       </c>
       <c r="C59">
-        <v>-0.2172304993940718</v>
+        <v>0.2015841405247505</v>
       </c>
       <c r="D59">
-        <v>0.01383177705782964</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02146708728675353</v>
+      </c>
+      <c r="E59">
+        <v>0.01494013493910506</v>
+      </c>
+      <c r="F59">
+        <v>0.03695124219055872</v>
+      </c>
+      <c r="G59">
+        <v>-0.02341390718999131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3090436100225307</v>
+        <v>0.2828316996694003</v>
       </c>
       <c r="C60">
-        <v>0.09368565571042554</v>
+        <v>-0.09631328016466612</v>
       </c>
       <c r="D60">
-        <v>-0.006483825672283301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1463280625118111</v>
+      </c>
+      <c r="E60">
+        <v>-0.2944447551856971</v>
+      </c>
+      <c r="F60">
+        <v>-0.1464252191608692</v>
+      </c>
+      <c r="G60">
+        <v>0.06637084403975117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03586154290768828</v>
+        <v>0.04099734247968573</v>
       </c>
       <c r="C61">
-        <v>0.06245475506809078</v>
+        <v>-0.06197857509583662</v>
       </c>
       <c r="D61">
-        <v>0.00232417684936002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03854929165421479</v>
+      </c>
+      <c r="E61">
+        <v>-0.003920949965447741</v>
+      </c>
+      <c r="F61">
+        <v>0.08668855423867496</v>
+      </c>
+      <c r="G61">
+        <v>0.0004300369893469366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01648012962743743</v>
+        <v>0.01709713767887403</v>
       </c>
       <c r="C63">
-        <v>0.02801344170860396</v>
+        <v>-0.02862724802163634</v>
       </c>
       <c r="D63">
-        <v>-0.01741447531502322</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01402288384738052</v>
+      </c>
+      <c r="E63">
+        <v>0.01430673435967704</v>
+      </c>
+      <c r="F63">
+        <v>0.0906707736040519</v>
+      </c>
+      <c r="G63">
+        <v>0.01917888672079666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04799562874991405</v>
+        <v>0.05433726640362488</v>
       </c>
       <c r="C64">
-        <v>0.02918528573170674</v>
+        <v>-0.04964294131322414</v>
       </c>
       <c r="D64">
-        <v>-0.01498771793719491</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008471064467212306</v>
+      </c>
+      <c r="E64">
+        <v>-0.001579371639513171</v>
+      </c>
+      <c r="F64">
+        <v>0.09351984872490471</v>
+      </c>
+      <c r="G64">
+        <v>-0.01380513364759599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08562591903087206</v>
+        <v>0.06766746594844164</v>
       </c>
       <c r="C65">
-        <v>0.0630560733119285</v>
+        <v>-0.04340937865295177</v>
       </c>
       <c r="D65">
-        <v>0.006577537921718667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07449541649162685</v>
+      </c>
+      <c r="E65">
+        <v>-0.01018335918871149</v>
+      </c>
+      <c r="F65">
+        <v>0.03664090275247566</v>
+      </c>
+      <c r="G65">
+        <v>-0.006617050086190862</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06010882915190688</v>
+        <v>0.05105287899804417</v>
       </c>
       <c r="C66">
-        <v>0.1206780463749914</v>
+        <v>-0.09764884633887416</v>
       </c>
       <c r="D66">
-        <v>0.00880241611539633</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07109002499595286</v>
+      </c>
+      <c r="E66">
+        <v>-0.0166936229889083</v>
+      </c>
+      <c r="F66">
+        <v>0.09054296842647429</v>
+      </c>
+      <c r="G66">
+        <v>-0.01558818803697405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0625812544199499</v>
+        <v>0.05151605519096655</v>
       </c>
       <c r="C67">
-        <v>0.02666548855734974</v>
+        <v>-0.02666332178396384</v>
       </c>
       <c r="D67">
-        <v>-0.01664233393124757</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007649036126544209</v>
+      </c>
+      <c r="E67">
+        <v>0.007380180259952914</v>
+      </c>
+      <c r="F67">
+        <v>0.06984882277041593</v>
+      </c>
+      <c r="G67">
+        <v>0.008951226815609869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1244579077871768</v>
+        <v>0.1521305426618343</v>
       </c>
       <c r="C68">
-        <v>-0.286762288216773</v>
+        <v>0.2627210199718858</v>
       </c>
       <c r="D68">
-        <v>0.02805314665810361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.009982157472178404</v>
+      </c>
+      <c r="E68">
+        <v>0.04273224035406552</v>
+      </c>
+      <c r="F68">
+        <v>0.01911142249384832</v>
+      </c>
+      <c r="G68">
+        <v>-0.0007163662946787719</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08491907850345337</v>
+        <v>0.08732543301568274</v>
       </c>
       <c r="C69">
-        <v>0.06679109243987934</v>
+        <v>-0.08170875712728017</v>
       </c>
       <c r="D69">
-        <v>-0.03394666210019536</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01230390424424262</v>
+      </c>
+      <c r="E69">
+        <v>0.01422340621537217</v>
+      </c>
+      <c r="F69">
+        <v>0.09885842533642041</v>
+      </c>
+      <c r="G69">
+        <v>0.008283410877747064</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1254478007987542</v>
+        <v>0.140924154059145</v>
       </c>
       <c r="C71">
-        <v>-0.2379313675909028</v>
+        <v>0.2358701179032541</v>
       </c>
       <c r="D71">
-        <v>0.02896563141852847</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02088318768872011</v>
+      </c>
+      <c r="E71">
+        <v>0.04277428276808357</v>
+      </c>
+      <c r="F71">
+        <v>0.06496478980287101</v>
+      </c>
+      <c r="G71">
+        <v>0.01512790400047544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0775934125983052</v>
+        <v>0.08858186584643631</v>
       </c>
       <c r="C72">
-        <v>0.05857838747364065</v>
+        <v>-0.05804695854407999</v>
       </c>
       <c r="D72">
-        <v>-0.04618596852889692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004807792873248081</v>
+      </c>
+      <c r="E72">
+        <v>-0.02208754106554854</v>
+      </c>
+      <c r="F72">
+        <v>0.07907456720054201</v>
+      </c>
+      <c r="G72">
+        <v>0.01028307489218464</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4387245029067365</v>
+        <v>0.3543853757106921</v>
       </c>
       <c r="C73">
-        <v>0.09035394414548055</v>
+        <v>-0.07649512155894946</v>
       </c>
       <c r="D73">
-        <v>0.01052739180295743</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3262073877886683</v>
+      </c>
+      <c r="E73">
+        <v>-0.5318733221420157</v>
+      </c>
+      <c r="F73">
+        <v>-0.3143308311069101</v>
+      </c>
+      <c r="G73">
+        <v>0.1556644454692912</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1147039317791062</v>
+        <v>0.110980166603094</v>
       </c>
       <c r="C74">
-        <v>0.1170289372766468</v>
+        <v>-0.1017129475944373</v>
       </c>
       <c r="D74">
-        <v>-0.02427239133458801</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01515407209619034</v>
+      </c>
+      <c r="E74">
+        <v>0.06297035230030633</v>
+      </c>
+      <c r="F74">
+        <v>0.07945712868721475</v>
+      </c>
+      <c r="G74">
+        <v>0.0547678310487212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2612920180304055</v>
+        <v>0.2557375139498707</v>
       </c>
       <c r="C75">
-        <v>0.1224791244015595</v>
+        <v>-0.1381635953646136</v>
       </c>
       <c r="D75">
-        <v>-0.03832541911834225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1007944290800388</v>
+      </c>
+      <c r="E75">
+        <v>0.1200500617683546</v>
+      </c>
+      <c r="F75">
+        <v>0.02818587538604089</v>
+      </c>
+      <c r="G75">
+        <v>0.05736135360135405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.116198104370981</v>
+        <v>0.1280587007124727</v>
       </c>
       <c r="C76">
-        <v>0.1027956896854356</v>
+        <v>-0.1037790026437214</v>
       </c>
       <c r="D76">
-        <v>-0.03091589835801933</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04421840656671383</v>
+      </c>
+      <c r="E76">
+        <v>0.08132640890922804</v>
+      </c>
+      <c r="F76">
+        <v>0.08135957343951841</v>
+      </c>
+      <c r="G76">
+        <v>0.04230276360204267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07082839426831269</v>
+        <v>0.06752300057894799</v>
       </c>
       <c r="C77">
-        <v>0.05988294630554264</v>
+        <v>-0.06478274203683848</v>
       </c>
       <c r="D77">
-        <v>0.02779588365900564</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05868801431868854</v>
+      </c>
+      <c r="E77">
+        <v>0.0376668847876787</v>
+      </c>
+      <c r="F77">
+        <v>0.1017680549269273</v>
+      </c>
+      <c r="G77">
+        <v>-0.1440039875850606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04316601273975308</v>
+        <v>0.04228355143754674</v>
       </c>
       <c r="C78">
-        <v>0.04850173758004309</v>
+        <v>-0.0554983565735693</v>
       </c>
       <c r="D78">
-        <v>0.004305217073777696</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05841975167334783</v>
+      </c>
+      <c r="E78">
+        <v>-0.01999178345986482</v>
+      </c>
+      <c r="F78">
+        <v>0.09627530086693478</v>
+      </c>
+      <c r="G78">
+        <v>-0.009531075933462512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.006411594658010509</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.02986215629197134</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01986839064043401</v>
+      </c>
+      <c r="E79">
+        <v>0.03259687528103155</v>
+      </c>
+      <c r="F79">
+        <v>0.03955461581982764</v>
+      </c>
+      <c r="G79">
+        <v>0.03062718199972861</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0480143757937866</v>
+        <v>0.03915180216965475</v>
       </c>
       <c r="C80">
-        <v>0.0577902467753681</v>
+        <v>-0.04636540628538408</v>
       </c>
       <c r="D80">
-        <v>0.01733681057556678</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04457826009931943</v>
+      </c>
+      <c r="E80">
+        <v>0.001254571188974993</v>
+      </c>
+      <c r="F80">
+        <v>0.03515589407398492</v>
+      </c>
+      <c r="G80">
+        <v>-0.04765885374791733</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.136769248072333</v>
+        <v>0.1409570625151916</v>
       </c>
       <c r="C81">
-        <v>0.08141559954802786</v>
+        <v>-0.09440724272284058</v>
       </c>
       <c r="D81">
-        <v>-0.02982320678121813</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.074787171523669</v>
+      </c>
+      <c r="E81">
+        <v>0.09938680481336742</v>
+      </c>
+      <c r="F81">
+        <v>0.03939996281939422</v>
+      </c>
+      <c r="G81">
+        <v>0.04797976230611652</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.06902850030238147</v>
+        <v>0.187657694773732</v>
       </c>
       <c r="C82">
-        <v>0.04058933413174683</v>
+        <v>-0.1361710666861979</v>
       </c>
       <c r="D82">
-        <v>-0.01903776860924893</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2119422973032034</v>
+      </c>
+      <c r="E82">
+        <v>0.05801785013931388</v>
+      </c>
+      <c r="F82">
+        <v>0.04301649484377201</v>
+      </c>
+      <c r="G82">
+        <v>0.003119509648625292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02729288232167126</v>
+        <v>0.02719202720330435</v>
       </c>
       <c r="C83">
-        <v>0.02050419766358358</v>
+        <v>-0.03639758378062533</v>
       </c>
       <c r="D83">
-        <v>0.01488435078306171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0324677650161598</v>
+      </c>
+      <c r="E83">
+        <v>-0.007662458607151677</v>
+      </c>
+      <c r="F83">
+        <v>0.0511420591461427</v>
+      </c>
+      <c r="G83">
+        <v>-0.02990102444244135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2424275247065688</v>
+        <v>0.209876737431768</v>
       </c>
       <c r="C85">
-        <v>0.1203263944360411</v>
+        <v>-0.1215816191801427</v>
       </c>
       <c r="D85">
-        <v>-0.1087353077096879</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1024007389638265</v>
+      </c>
+      <c r="E85">
+        <v>0.04122129253261318</v>
+      </c>
+      <c r="F85">
+        <v>-0.0103414092093719</v>
+      </c>
+      <c r="G85">
+        <v>0.1082385461072642</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01307155980789461</v>
+        <v>0.01470486321284429</v>
       </c>
       <c r="C86">
-        <v>0.02681244562093281</v>
+        <v>-0.03072062714815193</v>
       </c>
       <c r="D86">
-        <v>0.007692660066981956</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07331386429985759</v>
+      </c>
+      <c r="E86">
+        <v>-0.0007998662629781874</v>
+      </c>
+      <c r="F86">
+        <v>0.1598806946288945</v>
+      </c>
+      <c r="G86">
+        <v>-0.03024459476890475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01272595338056041</v>
+        <v>0.02205790040203179</v>
       </c>
       <c r="C87">
-        <v>0.02682923482889025</v>
+        <v>-0.01850239886646159</v>
       </c>
       <c r="D87">
-        <v>0.07390053647079103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09701530980414791</v>
+      </c>
+      <c r="E87">
+        <v>0.04460633533496559</v>
+      </c>
+      <c r="F87">
+        <v>0.1116692454636386</v>
+      </c>
+      <c r="G87">
+        <v>-0.04783839326216592</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1005440709593181</v>
+        <v>0.08932740512699029</v>
       </c>
       <c r="C88">
-        <v>0.06935631849496621</v>
+        <v>-0.06150452363708599</v>
       </c>
       <c r="D88">
-        <v>-0.01377396393581695</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.009125379028524554</v>
+      </c>
+      <c r="E88">
+        <v>0.01151934313894559</v>
+      </c>
+      <c r="F88">
+        <v>0.07906939310845899</v>
+      </c>
+      <c r="G88">
+        <v>-0.03492110419463501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1981878010656285</v>
+        <v>0.2158863552655672</v>
       </c>
       <c r="C89">
-        <v>-0.3677497479516999</v>
+        <v>0.3759882229074337</v>
       </c>
       <c r="D89">
-        <v>-0.01736215715822546</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01669800148743123</v>
+      </c>
+      <c r="E89">
+        <v>0.0108052644719406</v>
+      </c>
+      <c r="F89">
+        <v>0.07821724003326612</v>
+      </c>
+      <c r="G89">
+        <v>-0.09269520865327191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1859604732210063</v>
+        <v>0.2004255244171704</v>
       </c>
       <c r="C90">
-        <v>-0.3467022212042536</v>
+        <v>0.3192055679644565</v>
       </c>
       <c r="D90">
-        <v>0.02157288419523816</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01360826464316691</v>
+      </c>
+      <c r="E90">
+        <v>0.05356454543609047</v>
+      </c>
+      <c r="F90">
+        <v>0.04970099287823453</v>
+      </c>
+      <c r="G90">
+        <v>-0.02414921951718116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2001522198994262</v>
+        <v>0.1919199107223933</v>
       </c>
       <c r="C91">
-        <v>0.110688756808645</v>
+        <v>-0.134186347718471</v>
       </c>
       <c r="D91">
-        <v>-0.04035227622014355</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08559002036981031</v>
+      </c>
+      <c r="E91">
+        <v>0.09898129390937531</v>
+      </c>
+      <c r="F91">
+        <v>0.05672921175535519</v>
+      </c>
+      <c r="G91">
+        <v>0.04431536182185949</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1771397885810796</v>
+        <v>0.1828921097888955</v>
       </c>
       <c r="C92">
-        <v>-0.2735691065709115</v>
+        <v>0.2771084936591768</v>
       </c>
       <c r="D92">
-        <v>0.01633141396125451</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005789575177864645</v>
+      </c>
+      <c r="E92">
+        <v>0.07610319961389313</v>
+      </c>
+      <c r="F92">
+        <v>0.07206919169274696</v>
+      </c>
+      <c r="G92">
+        <v>-0.02888421021764689</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1992843865221718</v>
+        <v>0.2219144638350178</v>
       </c>
       <c r="C93">
-        <v>-0.3301268041114599</v>
+        <v>0.3208050821366992</v>
       </c>
       <c r="D93">
-        <v>0.02099270182177737</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004700504589663755</v>
+      </c>
+      <c r="E93">
+        <v>0.03767976360683224</v>
+      </c>
+      <c r="F93">
+        <v>0.05746707241838202</v>
+      </c>
+      <c r="G93">
+        <v>0.01338439357423263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2762000275072308</v>
+        <v>0.3393405099623552</v>
       </c>
       <c r="C94">
-        <v>0.1428788417136417</v>
+        <v>-0.1900062739962736</v>
       </c>
       <c r="D94">
-        <v>-0.07205825052866982</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4125901123246543</v>
+      </c>
+      <c r="E94">
+        <v>0.3053972626494256</v>
+      </c>
+      <c r="F94">
+        <v>-0.4499583524896923</v>
+      </c>
+      <c r="G94">
+        <v>-0.198157694897503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08289970662330534</v>
+        <v>0.08101108747559987</v>
       </c>
       <c r="C95">
-        <v>0.09302949034884436</v>
+        <v>-0.08579746195628914</v>
       </c>
       <c r="D95">
-        <v>0.05815494648668528</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.136694612118656</v>
+      </c>
+      <c r="E95">
+        <v>-0.1484990737034405</v>
+      </c>
+      <c r="F95">
+        <v>0.009238849251097164</v>
+      </c>
+      <c r="G95">
+        <v>-0.909670861827398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2095007564710399</v>
+        <v>0.193097685863452</v>
       </c>
       <c r="C98">
-        <v>0.03838618429775058</v>
+        <v>-0.04167542739069391</v>
       </c>
       <c r="D98">
-        <v>0.02806082883291782</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1422096144046974</v>
+      </c>
+      <c r="E98">
+        <v>-0.1806101014256821</v>
+      </c>
+      <c r="F98">
+        <v>-0.0420302467606094</v>
+      </c>
+      <c r="G98">
+        <v>0.1065936009589945</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01133410731199317</v>
+        <v>0.008649820804977953</v>
       </c>
       <c r="C101">
-        <v>0.02105436465759309</v>
+        <v>-0.02148323644394255</v>
       </c>
       <c r="D101">
-        <v>-0.01179600520202617</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01229929857266429</v>
+      </c>
+      <c r="E101">
+        <v>0.01220227279834974</v>
+      </c>
+      <c r="F101">
+        <v>0.09783933486273458</v>
+      </c>
+      <c r="G101">
+        <v>-0.004400476951080565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1215965835621972</v>
+        <v>0.1237829873369011</v>
       </c>
       <c r="C102">
-        <v>0.07510798159968514</v>
+        <v>-0.09675602382364162</v>
       </c>
       <c r="D102">
-        <v>-0.03121991019260813</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04598695305657776</v>
+      </c>
+      <c r="E102">
+        <v>0.01251727159232619</v>
+      </c>
+      <c r="F102">
+        <v>0.02929669590245417</v>
+      </c>
+      <c r="G102">
+        <v>0.01142553460402068</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
